--- a/metrics/transfer_time/cleaned_data/nginx_10.nan.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_10.nan.xlsx
@@ -709,16 +709,36 @@
       <c r="Q3" t="n">
         <v>1509</v>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10820595</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>19</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -772,16 +792,36 @@
       <c r="Q4" t="n">
         <v>1508</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10820595</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>19</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -835,16 +875,36 @@
       <c r="Q5" t="n">
         <v>1508</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10820595</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>19</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -898,16 +958,36 @@
       <c r="Q6" t="n">
         <v>1514</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10820595</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>19</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1044,16 +1124,36 @@
       <c r="Q8" t="n">
         <v>1510</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T8" t="n">
+        <v>10820895</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>18</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1107,16 +1207,36 @@
       <c r="Q9" t="n">
         <v>1507</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10820895</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>18</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1170,16 +1290,36 @@
       <c r="Q10" t="n">
         <v>1508</v>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10820895</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>18</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1233,16 +1373,36 @@
       <c r="Q11" t="n">
         <v>1508</v>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T11" t="n">
+        <v>10820895</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>18</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1379,16 +1539,36 @@
       <c r="Q13" t="n">
         <v>1508</v>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T13" t="n">
+        <v>10821196</v>
+      </c>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>20</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>73</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1442,16 +1622,36 @@
       <c r="Q14" t="n">
         <v>1507</v>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T14" t="n">
+        <v>10821196</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>20</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1505,16 +1705,36 @@
       <c r="Q15" t="n">
         <v>1508</v>
       </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T15" t="n">
+        <v>10821196</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>20</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1568,16 +1788,36 @@
       <c r="Q16" t="n">
         <v>1509</v>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T16" t="n">
+        <v>10821196</v>
+      </c>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>20</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1714,16 +1954,36 @@
       <c r="Q18" t="n">
         <v>1507</v>
       </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T18" t="n">
+        <v>10821496</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>18</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1777,16 +2037,36 @@
       <c r="Q19" t="n">
         <v>1506</v>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T19" t="n">
+        <v>10821496</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>18</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1840,16 +2120,36 @@
       <c r="Q20" t="n">
         <v>1510</v>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T20" t="n">
+        <v>10821496</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1903,16 +2203,36 @@
       <c r="Q21" t="n">
         <v>1506</v>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T21" t="n">
+        <v>10821496</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>18</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -2049,16 +2369,36 @@
       <c r="Q23" t="n">
         <v>1507</v>
       </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10821796</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>19</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2112,16 +2452,36 @@
       <c r="Q24" t="n">
         <v>1507</v>
       </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T24" t="n">
+        <v>10821796</v>
+      </c>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>19</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2175,16 +2535,36 @@
       <c r="Q25" t="n">
         <v>1507</v>
       </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T25" t="n">
+        <v>10821796</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>19</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2238,16 +2618,36 @@
       <c r="Q26" t="n">
         <v>1507</v>
       </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T26" t="n">
+        <v>10821796</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>19</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2384,16 +2784,36 @@
       <c r="Q28" t="n">
         <v>1508</v>
       </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T28" t="n">
+        <v>10822096</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>18</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2447,16 +2867,36 @@
       <c r="Q29" t="n">
         <v>1509</v>
       </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T29" t="n">
+        <v>10822096</v>
+      </c>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>18</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2510,16 +2950,36 @@
       <c r="Q30" t="n">
         <v>1507</v>
       </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T30" t="n">
+        <v>10822096</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>18</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2573,16 +3033,36 @@
       <c r="Q31" t="n">
         <v>1506</v>
       </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T31" t="n">
+        <v>10822096</v>
+      </c>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>18</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2719,16 +3199,36 @@
       <c r="Q33" t="n">
         <v>1507</v>
       </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T33" t="n">
+        <v>10822396</v>
+      </c>
+      <c r="U33" t="n">
+        <v>6</v>
+      </c>
+      <c r="V33" t="n">
+        <v>18</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2782,16 +3282,36 @@
       <c r="Q34" t="n">
         <v>1508</v>
       </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T34" t="n">
+        <v>10822396</v>
+      </c>
+      <c r="U34" t="n">
+        <v>6</v>
+      </c>
+      <c r="V34" t="n">
+        <v>18</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2845,16 +3365,36 @@
       <c r="Q35" t="n">
         <v>1507</v>
       </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T35" t="n">
+        <v>10822396</v>
+      </c>
+      <c r="U35" t="n">
+        <v>6</v>
+      </c>
+      <c r="V35" t="n">
+        <v>18</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2908,16 +3448,36 @@
       <c r="Q36" t="n">
         <v>1506</v>
       </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T36" t="n">
+        <v>10822396</v>
+      </c>
+      <c r="U36" t="n">
+        <v>6</v>
+      </c>
+      <c r="V36" t="n">
+        <v>18</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -3054,16 +3614,36 @@
       <c r="Q38" t="n">
         <v>1507</v>
       </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T38" t="n">
+        <v>10822696</v>
+      </c>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>18</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3117,16 +3697,36 @@
       <c r="Q39" t="n">
         <v>1508</v>
       </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T39" t="n">
+        <v>10822696</v>
+      </c>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>18</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -3180,16 +3780,36 @@
       <c r="Q40" t="n">
         <v>1511</v>
       </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T40" t="n">
+        <v>10822696</v>
+      </c>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>18</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -3243,16 +3863,36 @@
       <c r="Q41" t="n">
         <v>1510</v>
       </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T41" t="n">
+        <v>10822696</v>
+      </c>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>18</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3389,16 +4029,36 @@
       <c r="Q43" t="n">
         <v>1510</v>
       </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T43" t="n">
+        <v>10822996</v>
+      </c>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>17</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3452,16 +4112,36 @@
       <c r="Q44" t="n">
         <v>1508</v>
       </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T44" t="n">
+        <v>10822996</v>
+      </c>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>17</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3515,16 +4195,36 @@
       <c r="Q45" t="n">
         <v>1507</v>
       </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T45" t="n">
+        <v>10822996</v>
+      </c>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>17</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3578,16 +4278,36 @@
       <c r="Q46" t="n">
         <v>1507</v>
       </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T46" t="n">
+        <v>10822996</v>
+      </c>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>17</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3724,16 +4444,36 @@
       <c r="Q48" t="n">
         <v>1510</v>
       </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T48" t="n">
+        <v>10823296</v>
+      </c>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>18</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3787,16 +4527,36 @@
       <c r="Q49" t="n">
         <v>1512</v>
       </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T49" t="n">
+        <v>10823296</v>
+      </c>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>18</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3850,16 +4610,36 @@
       <c r="Q50" t="n">
         <v>1508</v>
       </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T50" t="n">
+        <v>10823296</v>
+      </c>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>18</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3913,16 +4693,36 @@
       <c r="Q51" t="n">
         <v>1508</v>
       </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T51" t="n">
+        <v>10823296</v>
+      </c>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>18</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -4059,16 +4859,36 @@
       <c r="Q53" t="n">
         <v>1509</v>
       </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T53" t="n">
+        <v>10823595</v>
+      </c>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>18</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -4122,16 +4942,36 @@
       <c r="Q54" t="n">
         <v>1507</v>
       </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T54" t="n">
+        <v>10823595</v>
+      </c>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>18</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -4185,16 +5025,36 @@
       <c r="Q55" t="n">
         <v>1506</v>
       </c>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T55" t="n">
+        <v>10823595</v>
+      </c>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>18</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -4248,16 +5108,36 @@
       <c r="Q56" t="n">
         <v>1506</v>
       </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T56" t="n">
+        <v>10823595</v>
+      </c>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>18</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -4394,16 +5274,36 @@
       <c r="Q58" t="n">
         <v>1509</v>
       </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T58" t="n">
+        <v>10823895</v>
+      </c>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>19</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4457,16 +5357,36 @@
       <c r="Q59" t="n">
         <v>1507</v>
       </c>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T59" t="n">
+        <v>10823895</v>
+      </c>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>19</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -4520,16 +5440,36 @@
       <c r="Q60" t="n">
         <v>1509</v>
       </c>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T60" t="n">
+        <v>10823895</v>
+      </c>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>19</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -4583,16 +5523,36 @@
       <c r="Q61" t="n">
         <v>1509</v>
       </c>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T61" t="n">
+        <v>10823895</v>
+      </c>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>19</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -4729,16 +5689,36 @@
       <c r="Q63" t="n">
         <v>1507</v>
       </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T63" t="n">
+        <v>10824195</v>
+      </c>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>22</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -4792,16 +5772,36 @@
       <c r="Q64" t="n">
         <v>1511</v>
       </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T64" t="n">
+        <v>10824195</v>
+      </c>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>22</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -4855,16 +5855,36 @@
       <c r="Q65" t="n">
         <v>1507</v>
       </c>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T65" t="n">
+        <v>10824195</v>
+      </c>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>22</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -4918,16 +5938,36 @@
       <c r="Q66" t="n">
         <v>1506</v>
       </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T66" t="n">
+        <v>10824195</v>
+      </c>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>22</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -5064,16 +6104,36 @@
       <c r="Q68" t="n">
         <v>1509</v>
       </c>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T68" t="n">
+        <v>10824495</v>
+      </c>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>17</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -5127,16 +6187,36 @@
       <c r="Q69" t="n">
         <v>1510</v>
       </c>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T69" t="n">
+        <v>10824495</v>
+      </c>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>17</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -5190,16 +6270,36 @@
       <c r="Q70" t="n">
         <v>1507</v>
       </c>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T70" t="n">
+        <v>10824495</v>
+      </c>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>17</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -5253,16 +6353,36 @@
       <c r="Q71" t="n">
         <v>1509</v>
       </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T71" t="n">
+        <v>10824495</v>
+      </c>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>17</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -5399,16 +6519,36 @@
       <c r="Q73" t="n">
         <v>1512</v>
       </c>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T73" t="n">
+        <v>10824795</v>
+      </c>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>17</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -5462,16 +6602,36 @@
       <c r="Q74" t="n">
         <v>1508</v>
       </c>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T74" t="n">
+        <v>10824795</v>
+      </c>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>17</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -5525,16 +6685,36 @@
       <c r="Q75" t="n">
         <v>1507</v>
       </c>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T75" t="n">
+        <v>10824795</v>
+      </c>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>17</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -5588,16 +6768,36 @@
       <c r="Q76" t="n">
         <v>1508</v>
       </c>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
-      <c r="AA76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T76" t="n">
+        <v>10824795</v>
+      </c>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>17</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -5734,16 +6934,36 @@
       <c r="Q78" t="n">
         <v>1508</v>
       </c>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
-      <c r="AA78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T78" t="n">
+        <v>10825095</v>
+      </c>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>15</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -5797,16 +7017,36 @@
       <c r="Q79" t="n">
         <v>1507</v>
       </c>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T79" t="n">
+        <v>10825095</v>
+      </c>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>15</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -5860,16 +7100,36 @@
       <c r="Q80" t="n">
         <v>1507</v>
       </c>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T80" t="n">
+        <v>10825095</v>
+      </c>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>15</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -5923,16 +7183,36 @@
       <c r="Q81" t="n">
         <v>1509</v>
       </c>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T81" t="n">
+        <v>10825095</v>
+      </c>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>15</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -6069,16 +7349,36 @@
       <c r="Q83" t="n">
         <v>1508</v>
       </c>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T83" t="n">
+        <v>10825395</v>
+      </c>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>17</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -6132,16 +7432,36 @@
       <c r="Q84" t="n">
         <v>1508</v>
       </c>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T84" t="n">
+        <v>10825395</v>
+      </c>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>17</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -6195,16 +7515,36 @@
       <c r="Q85" t="n">
         <v>1508</v>
       </c>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T85" t="n">
+        <v>10825395</v>
+      </c>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>17</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -6258,16 +7598,36 @@
       <c r="Q86" t="n">
         <v>1508</v>
       </c>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T86" t="n">
+        <v>10825395</v>
+      </c>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>17</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -6404,16 +7764,36 @@
       <c r="Q88" t="n">
         <v>1510</v>
       </c>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T88" t="n">
+        <v>10825695</v>
+      </c>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>17</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -6467,16 +7847,36 @@
       <c r="Q89" t="n">
         <v>1511</v>
       </c>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T89" t="n">
+        <v>10825695</v>
+      </c>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>17</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -6530,16 +7930,36 @@
       <c r="Q90" t="n">
         <v>1509</v>
       </c>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T90" t="n">
+        <v>10825695</v>
+      </c>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>17</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -6593,16 +8013,36 @@
       <c r="Q91" t="n">
         <v>1508</v>
       </c>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T91" t="n">
+        <v>10825695</v>
+      </c>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>17</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -6739,16 +8179,36 @@
       <c r="Q93" t="n">
         <v>1509</v>
       </c>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T93" t="n">
+        <v>10825995</v>
+      </c>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>20</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -6802,16 +8262,36 @@
       <c r="Q94" t="n">
         <v>1509</v>
       </c>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T94" t="n">
+        <v>10825995</v>
+      </c>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>20</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -6865,16 +8345,36 @@
       <c r="Q95" t="n">
         <v>1506</v>
       </c>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T95" t="n">
+        <v>10825995</v>
+      </c>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>20</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -6928,16 +8428,36 @@
       <c r="Q96" t="n">
         <v>1507</v>
       </c>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T96" t="n">
+        <v>10825995</v>
+      </c>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>20</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -7074,16 +8594,36 @@
       <c r="Q98" t="n">
         <v>1508</v>
       </c>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T98" t="n">
+        <v>10826296</v>
+      </c>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>18</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -7137,16 +8677,36 @@
       <c r="Q99" t="n">
         <v>1507</v>
       </c>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T99" t="n">
+        <v>10826296</v>
+      </c>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>18</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -7200,16 +8760,36 @@
       <c r="Q100" t="n">
         <v>1545</v>
       </c>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T100" t="n">
+        <v>10826296</v>
+      </c>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>18</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -7263,16 +8843,36 @@
       <c r="Q101" t="n">
         <v>1516</v>
       </c>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T101" t="n">
+        <v>10826296</v>
+      </c>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>18</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -7409,16 +9009,36 @@
       <c r="Q103" t="n">
         <v>1511</v>
       </c>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T103" t="n">
+        <v>10826596</v>
+      </c>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>19</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -7472,16 +9092,36 @@
       <c r="Q104" t="n">
         <v>1510</v>
       </c>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T104" t="n">
+        <v>10826596</v>
+      </c>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>19</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -7535,16 +9175,36 @@
       <c r="Q105" t="n">
         <v>1508</v>
       </c>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
+      <c r="R105" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T105" t="n">
+        <v>10826596</v>
+      </c>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>19</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -7598,16 +9258,36 @@
       <c r="Q106" t="n">
         <v>1508</v>
       </c>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T106" t="n">
+        <v>10826596</v>
+      </c>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>19</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -7744,16 +9424,36 @@
       <c r="Q108" t="n">
         <v>1508</v>
       </c>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T108" t="n">
+        <v>10826896</v>
+      </c>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>15</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -7807,16 +9507,36 @@
       <c r="Q109" t="n">
         <v>1508</v>
       </c>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T109" t="n">
+        <v>10826896</v>
+      </c>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>15</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -7870,16 +9590,36 @@
       <c r="Q110" t="n">
         <v>1508</v>
       </c>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
+      <c r="R110" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T110" t="n">
+        <v>10826896</v>
+      </c>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>15</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -7933,16 +9673,36 @@
       <c r="Q111" t="n">
         <v>1507</v>
       </c>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>1216</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="T111" t="n">
+        <v>10826896</v>
+      </c>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>15</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -8079,16 +9839,36 @@
       <c r="Q113" t="n">
         <v>1507</v>
       </c>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T113" t="n">
+        <v>10827196</v>
+      </c>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>19</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -8142,16 +9922,36 @@
       <c r="Q114" t="n">
         <v>1511</v>
       </c>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T114" t="n">
+        <v>10827196</v>
+      </c>
+      <c r="U114" t="n">
+        <v>4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>19</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -8205,16 +10005,36 @@
       <c r="Q115" t="n">
         <v>1506</v>
       </c>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T115" t="n">
+        <v>10827196</v>
+      </c>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>19</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -8268,16 +10088,36 @@
       <c r="Q116" t="n">
         <v>1509</v>
       </c>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T116" t="n">
+        <v>10827196</v>
+      </c>
+      <c r="U116" t="n">
+        <v>4</v>
+      </c>
+      <c r="V116" t="n">
+        <v>19</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -8414,16 +10254,36 @@
       <c r="Q118" t="n">
         <v>1506</v>
       </c>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
-      <c r="AA118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T118" t="n">
+        <v>10827496</v>
+      </c>
+      <c r="U118" t="n">
+        <v>5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>15</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>106</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -8477,16 +10337,36 @@
       <c r="Q119" t="n">
         <v>1509</v>
       </c>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
-      <c r="AA119" t="inlineStr"/>
+      <c r="R119" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T119" t="n">
+        <v>10827496</v>
+      </c>
+      <c r="U119" t="n">
+        <v>5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>15</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>106</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -8540,16 +10420,36 @@
       <c r="Q120" t="n">
         <v>1507</v>
       </c>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
-      <c r="AA120" t="inlineStr"/>
+      <c r="R120" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T120" t="n">
+        <v>10827496</v>
+      </c>
+      <c r="U120" t="n">
+        <v>5</v>
+      </c>
+      <c r="V120" t="n">
+        <v>15</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>106</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -8603,16 +10503,36 @@
       <c r="Q121" t="n">
         <v>1507</v>
       </c>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
-      <c r="AA121" t="inlineStr"/>
+      <c r="R121" t="n">
+        <v>1184</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T121" t="n">
+        <v>10827496</v>
+      </c>
+      <c r="U121" t="n">
+        <v>5</v>
+      </c>
+      <c r="V121" t="n">
+        <v>15</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>106</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -8684,7 +10604,9 @@
       <c r="W122" t="n">
         <v>0</v>
       </c>
-      <c r="X122" t="inlineStr"/>
+      <c r="X122" t="n">
+        <v>2</v>
+      </c>
       <c r="Y122" t="n">
         <v>0</v>
       </c>
@@ -8747,16 +10669,36 @@
       <c r="Q123" t="n">
         <v>1510</v>
       </c>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
-      <c r="AA123" t="inlineStr"/>
+      <c r="R123" t="n">
+        <v>1280</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="T123" t="n">
+        <v>10827796</v>
+      </c>
+      <c r="U123" t="n">
+        <v>4</v>
+      </c>
+      <c r="V123" t="n">
+        <v>19</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -8810,16 +10752,36 @@
       <c r="Q124" t="n">
         <v>1509</v>
       </c>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
-      <c r="AA124" t="inlineStr"/>
+      <c r="R124" t="n">
+        <v>1280</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="T124" t="n">
+        <v>10827796</v>
+      </c>
+      <c r="U124" t="n">
+        <v>4</v>
+      </c>
+      <c r="V124" t="n">
+        <v>19</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -8873,16 +10835,36 @@
       <c r="Q125" t="n">
         <v>1511</v>
       </c>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
-      <c r="AA125" t="inlineStr"/>
+      <c r="R125" t="n">
+        <v>1280</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="T125" t="n">
+        <v>10827796</v>
+      </c>
+      <c r="U125" t="n">
+        <v>4</v>
+      </c>
+      <c r="V125" t="n">
+        <v>19</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -8936,16 +10918,36 @@
       <c r="Q126" t="n">
         <v>1513</v>
       </c>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
-      <c r="AA126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>1280</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="T126" t="n">
+        <v>10827796</v>
+      </c>
+      <c r="U126" t="n">
+        <v>4</v>
+      </c>
+      <c r="V126" t="n">
+        <v>19</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -9017,7 +11019,9 @@
       <c r="W127" t="n">
         <v>0</v>
       </c>
-      <c r="X127" t="inlineStr"/>
+      <c r="X127" t="n">
+        <v>2</v>
+      </c>
       <c r="Y127" t="n">
         <v>0</v>
       </c>
@@ -9080,16 +11084,36 @@
       <c r="Q128" t="n">
         <v>1510</v>
       </c>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
-      <c r="AA128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T128" t="n">
+        <v>10828096</v>
+      </c>
+      <c r="U128" t="n">
+        <v>5</v>
+      </c>
+      <c r="V128" t="n">
+        <v>18</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -9143,16 +11167,36 @@
       <c r="Q129" t="n">
         <v>1510</v>
       </c>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
-      <c r="AA129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T129" t="n">
+        <v>10828096</v>
+      </c>
+      <c r="U129" t="n">
+        <v>5</v>
+      </c>
+      <c r="V129" t="n">
+        <v>18</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -9206,16 +11250,36 @@
       <c r="Q130" t="n">
         <v>1511</v>
       </c>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
-      <c r="AA130" t="inlineStr"/>
+      <c r="R130" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T130" t="n">
+        <v>10828096</v>
+      </c>
+      <c r="U130" t="n">
+        <v>5</v>
+      </c>
+      <c r="V130" t="n">
+        <v>18</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -9269,16 +11333,36 @@
       <c r="Q131" t="n">
         <v>1508</v>
       </c>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
-      <c r="AA131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T131" t="n">
+        <v>10828096</v>
+      </c>
+      <c r="U131" t="n">
+        <v>5</v>
+      </c>
+      <c r="V131" t="n">
+        <v>18</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>83</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -9350,7 +11434,9 @@
       <c r="W132" t="n">
         <v>0</v>
       </c>
-      <c r="X132" t="inlineStr"/>
+      <c r="X132" t="n">
+        <v>2</v>
+      </c>
       <c r="Y132" t="n">
         <v>0</v>
       </c>
@@ -9413,16 +11499,36 @@
       <c r="Q133" t="n">
         <v>1511</v>
       </c>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
-      <c r="AA133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>1280</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="T133" t="n">
+        <v>10828395</v>
+      </c>
+      <c r="U133" t="n">
+        <v>4</v>
+      </c>
+      <c r="V133" t="n">
+        <v>17</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -9476,16 +11582,36 @@
       <c r="Q134" t="n">
         <v>1510</v>
       </c>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
-      <c r="AA134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>1280</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="T134" t="n">
+        <v>10828395</v>
+      </c>
+      <c r="U134" t="n">
+        <v>4</v>
+      </c>
+      <c r="V134" t="n">
+        <v>17</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -9539,16 +11665,36 @@
       <c r="Q135" t="n">
         <v>1512</v>
       </c>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
-      <c r="AA135" t="inlineStr"/>
+      <c r="R135" t="n">
+        <v>1280</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="T135" t="n">
+        <v>10828395</v>
+      </c>
+      <c r="U135" t="n">
+        <v>4</v>
+      </c>
+      <c r="V135" t="n">
+        <v>17</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -9602,16 +11748,36 @@
       <c r="Q136" t="n">
         <v>1510</v>
       </c>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
-      <c r="AA136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>1280</v>
+      </c>
+      <c r="S136" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="T136" t="n">
+        <v>10828395</v>
+      </c>
+      <c r="U136" t="n">
+        <v>4</v>
+      </c>
+      <c r="V136" t="n">
+        <v>17</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -9683,7 +11849,9 @@
       <c r="W137" t="n">
         <v>0</v>
       </c>
-      <c r="X137" t="inlineStr"/>
+      <c r="X137" t="n">
+        <v>2</v>
+      </c>
       <c r="Y137" t="n">
         <v>0</v>
       </c>
@@ -9746,16 +11914,36 @@
       <c r="Q138" t="n">
         <v>1508</v>
       </c>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
-      <c r="AA138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S138" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T138" t="n">
+        <v>10828695</v>
+      </c>
+      <c r="U138" t="n">
+        <v>4</v>
+      </c>
+      <c r="V138" t="n">
+        <v>15</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -9809,16 +11997,36 @@
       <c r="Q139" t="n">
         <v>1509</v>
       </c>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T139" t="n">
+        <v>10828695</v>
+      </c>
+      <c r="U139" t="n">
+        <v>4</v>
+      </c>
+      <c r="V139" t="n">
+        <v>15</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -9872,16 +12080,36 @@
       <c r="Q140" t="n">
         <v>1508</v>
       </c>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
-      <c r="AA140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S140" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T140" t="n">
+        <v>10828695</v>
+      </c>
+      <c r="U140" t="n">
+        <v>4</v>
+      </c>
+      <c r="V140" t="n">
+        <v>15</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -9935,16 +12163,36 @@
       <c r="Q141" t="n">
         <v>1510</v>
       </c>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T141" t="n">
+        <v>10828695</v>
+      </c>
+      <c r="U141" t="n">
+        <v>4</v>
+      </c>
+      <c r="V141" t="n">
+        <v>15</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -10016,7 +12264,9 @@
       <c r="W142" t="n">
         <v>0</v>
       </c>
-      <c r="X142" t="inlineStr"/>
+      <c r="X142" t="n">
+        <v>2</v>
+      </c>
       <c r="Y142" t="n">
         <v>0</v>
       </c>
@@ -10079,47 +12329,119 @@
       <c r="Q143" t="n">
         <v>1511</v>
       </c>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T143" t="n">
+        <v>10828995</v>
+      </c>
+      <c r="U143" t="n">
+        <v>4</v>
+      </c>
+      <c r="V143" t="n">
+        <v>17</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
-      <c r="AA144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>98.31999999999999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2410</v>
+      </c>
+      <c r="M144" t="n">
+        <v>145</v>
+      </c>
+      <c r="N144" t="n">
+        <v>39.88</v>
+      </c>
+      <c r="O144" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="P144" t="n">
+        <v>2278</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1511</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1248</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="T144" t="n">
+        <v>10828995</v>
+      </c>
+      <c r="U144" t="n">
+        <v>4</v>
+      </c>
+      <c r="V144" t="n">
+        <v>17</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
